--- a/bd2.xlsx
+++ b/bd2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Мартин Банда\Desktop\для дз\ДЗбд2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA11CBB-4345-40F5-8D7C-5959A0A75DF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDECAB4-C94E-4E21-8D66-7457ABE0A1BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="68">
   <si>
     <t>Общий список</t>
   </si>
@@ -315,6 +315,9 @@
   </si>
   <si>
     <t>Хабаровск</t>
+  </si>
+  <si>
+    <t>нет</t>
   </si>
 </sst>
 </file>
@@ -422,7 +425,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -653,11 +656,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -781,6 +836,28 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1897,10 +1974,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01140571-D3D6-489B-9568-A74960AF3FC2}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N63" sqref="N63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2244,7 +2321,7 @@
       </c>
       <c r="M16" s="30"/>
     </row>
-    <row r="17" spans="1:13" s="31" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" s="31" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="42"/>
       <c r="B17" s="42"/>
       <c r="C17" s="42"/>
@@ -2271,7 +2348,7 @@
       </c>
       <c r="M17" s="30"/>
     </row>
-    <row r="18" spans="1:13" s="31" customFormat="1" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" s="31" customFormat="1" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="42"/>
       <c r="B18" s="42"/>
       <c r="C18" s="42"/>
@@ -2298,7 +2375,7 @@
       </c>
       <c r="M18" s="30"/>
     </row>
-    <row r="19" spans="1:13" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="42"/>
       <c r="B19" s="42"/>
       <c r="C19" s="42"/>
@@ -2325,7 +2402,7 @@
       </c>
       <c r="M19" s="30"/>
     </row>
-    <row r="20" spans="1:13" s="31" customFormat="1" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" s="31" customFormat="1" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="42"/>
@@ -2352,7 +2429,7 @@
       </c>
       <c r="M20" s="30"/>
     </row>
-    <row r="21" spans="1:13" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="42"/>
       <c r="B21" s="42"/>
       <c r="C21" s="42"/>
@@ -2379,7 +2456,7 @@
       </c>
       <c r="M21" s="30"/>
     </row>
-    <row r="22" spans="1:13" s="31" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" s="31" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="42"/>
       <c r="B22" s="42"/>
       <c r="C22" s="42"/>
@@ -2406,7 +2483,7 @@
       </c>
       <c r="M22" s="30"/>
     </row>
-    <row r="23" spans="1:13" s="31" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" s="31" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="42"/>
       <c r="B23" s="42"/>
       <c r="C23" s="42"/>
@@ -2427,7 +2504,7 @@
       <c r="L23" s="42"/>
       <c r="M23" s="30"/>
     </row>
-    <row r="24" spans="1:13" s="31" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" s="31" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="42"/>
       <c r="B24" s="42"/>
       <c r="C24" s="42"/>
@@ -2448,13 +2525,977 @@
       <c r="L24" s="42"/>
       <c r="M24" s="30"/>
     </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A28" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="J28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+    </row>
+    <row r="29" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:16" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="J30" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="K30" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="L30" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M30" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N30" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="O30" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="P30" s="34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="24.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="36">
+        <v>1</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="38">
+        <v>33209</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="40">
+        <v>1</v>
+      </c>
+      <c r="F31" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="J31" s="36">
+        <v>1</v>
+      </c>
+      <c r="K31" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="L31" s="38">
+        <v>33209</v>
+      </c>
+      <c r="M31" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="N31" s="40">
+        <v>1</v>
+      </c>
+      <c r="O31" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="P31" s="41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="24.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="36">
+        <v>1</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="38">
+        <v>33209</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="40">
+        <v>1</v>
+      </c>
+      <c r="F32" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="J32" s="36">
+        <v>1</v>
+      </c>
+      <c r="K32" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32" s="38">
+        <v>33209</v>
+      </c>
+      <c r="M32" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="N32" s="40">
+        <v>1</v>
+      </c>
+      <c r="O32" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="P32" s="41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="36">
+        <v>1</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="38">
+        <v>33209</v>
+      </c>
+      <c r="D33" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="40">
+        <v>1</v>
+      </c>
+      <c r="F33" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="J33" s="36">
+        <v>1</v>
+      </c>
+      <c r="K33" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="L33" s="38">
+        <v>33209</v>
+      </c>
+      <c r="M33" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="N33" s="40">
+        <v>1</v>
+      </c>
+      <c r="O33" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="P33" s="41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="24.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="36">
+        <v>2</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="40">
+        <v>2</v>
+      </c>
+      <c r="F34" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="J34" s="36">
+        <v>2</v>
+      </c>
+      <c r="K34" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="L34" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="M34" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="N34" s="40">
+        <v>2</v>
+      </c>
+      <c r="O34" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="P34" s="41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="24.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="36">
+        <v>3</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="40">
+        <v>3</v>
+      </c>
+      <c r="F35" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="J35" s="36">
+        <v>3</v>
+      </c>
+      <c r="K35" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="L35" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M35" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="N35" s="40">
+        <v>3</v>
+      </c>
+      <c r="O35" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="P35" s="41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="24.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="36">
+        <v>4</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="40">
+        <v>4</v>
+      </c>
+      <c r="F36" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="J36" s="44">
+        <v>4</v>
+      </c>
+      <c r="K36" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="L36" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="M36" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="N36" s="40">
+        <v>4</v>
+      </c>
+      <c r="O36" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="P36" s="41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="24.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J37" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="K37" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="L37" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="M37" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="N37" s="43">
+        <v>5</v>
+      </c>
+      <c r="O37" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="P37" s="41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="24.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J38" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="K38" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="L38" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="M38" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="N38" s="43">
+        <v>6</v>
+      </c>
+      <c r="O38" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="P38" s="41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J39" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="K39" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="L39" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="M39" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="N39" s="43">
+        <v>7</v>
+      </c>
+      <c r="O39" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="P39" s="41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="24.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="J40" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="K40" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="L40" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="M40" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="N40" s="43">
+        <v>8</v>
+      </c>
+      <c r="O40" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="P40" s="41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J41" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="K41" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="L41" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="M41" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="N41" s="43">
+        <v>9</v>
+      </c>
+      <c r="O41" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="P41" s="41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="24.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F42" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="K42" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="L42" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="M42" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="N42" s="43">
+        <v>10</v>
+      </c>
+      <c r="O42" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="P42" s="41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="24.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="36">
+        <v>1</v>
+      </c>
+      <c r="B43" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="38">
+        <v>33209</v>
+      </c>
+      <c r="D43" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="40">
+        <v>1</v>
+      </c>
+      <c r="F43" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="36">
+        <v>1</v>
+      </c>
+      <c r="B44" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="38">
+        <v>33209</v>
+      </c>
+      <c r="D44" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="40">
+        <v>1</v>
+      </c>
+      <c r="F44" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="G44" s="41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="36">
+        <v>1</v>
+      </c>
+      <c r="B45" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="38">
+        <v>33209</v>
+      </c>
+      <c r="D45" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="40">
+        <v>1</v>
+      </c>
+      <c r="F45" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G45" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+    </row>
+    <row r="46" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="36">
+        <v>2</v>
+      </c>
+      <c r="B46" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="40">
+        <v>2</v>
+      </c>
+      <c r="F46" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" s="41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="36">
+        <v>3</v>
+      </c>
+      <c r="B47" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="40">
+        <v>3</v>
+      </c>
+      <c r="F47" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G47" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="J47" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="K47" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="L47" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M47" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="O47" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="P47" s="34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="24.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="36">
+        <v>4</v>
+      </c>
+      <c r="B48" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="49">
+        <v>4</v>
+      </c>
+      <c r="F48" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="G48" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="J48" s="36">
+        <v>1</v>
+      </c>
+      <c r="K48" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="L48" s="38">
+        <v>33209</v>
+      </c>
+      <c r="M48" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="N48" s="40">
+        <v>1</v>
+      </c>
+      <c r="O48" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="P48" s="41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="24.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="36">
+        <v>25</v>
+      </c>
+      <c r="B49" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="F49" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="G49" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="J49" s="36">
+        <v>1</v>
+      </c>
+      <c r="K49" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="L49" s="38">
+        <v>33209</v>
+      </c>
+      <c r="M49" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="N49" s="40">
+        <v>1</v>
+      </c>
+      <c r="O49" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="P49" s="41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J50" s="36">
+        <v>1</v>
+      </c>
+      <c r="K50" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="L50" s="38">
+        <v>33209</v>
+      </c>
+      <c r="M50" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="N50" s="40">
+        <v>1</v>
+      </c>
+      <c r="O50" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="P50" s="41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="24.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J51" s="36">
+        <v>2</v>
+      </c>
+      <c r="K51" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="L51" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="M51" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="N51" s="40">
+        <v>2</v>
+      </c>
+      <c r="O51" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="P51" s="41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="24.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J52" s="36">
+        <v>3</v>
+      </c>
+      <c r="K52" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="L52" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M52" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="N52" s="40">
+        <v>3</v>
+      </c>
+      <c r="O52" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="P52" s="41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="24.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J53" s="36">
+        <v>4</v>
+      </c>
+      <c r="K53" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="L53" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="M53" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="N53" s="40">
+        <v>4</v>
+      </c>
+      <c r="O53" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="P53" s="41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="24.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J54" s="36">
+        <v>25</v>
+      </c>
+      <c r="K54" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="L54" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="M54" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="N54" s="43">
+        <v>5</v>
+      </c>
+      <c r="O54" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="P54" s="41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="24.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J55" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="K55" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="L55" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="M55" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="N55" s="43">
+        <v>6</v>
+      </c>
+      <c r="O55" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="P55" s="41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J56" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="K56" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="L56" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="M56" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="N56" s="43">
+        <v>7</v>
+      </c>
+      <c r="O56" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="P56" s="41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="24.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J57" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="K57" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="L57" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="M57" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="N57" s="43">
+        <v>8</v>
+      </c>
+      <c r="O57" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="P57" s="41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J58" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="K58" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="L58" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="M58" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="N58" s="43">
+        <v>9</v>
+      </c>
+      <c r="O58" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="P58" s="41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="24.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J59" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="K59" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="L59" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="M59" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="N59" s="43">
+        <v>10</v>
+      </c>
+      <c r="O59" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="P59" s="41" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
+    <mergeCell ref="A40:G40"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="J45:P45"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A28:G28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
